--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetPassword" sheetId="3" r:id="rId2"/>
+    <sheet name="Register" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -44,6 +46,39 @@
   </si>
   <si>
     <t>tchangepond899536@gmail.com</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>User_TC003</t>
+  </si>
+  <si>
+    <t>AutoShipperAdmin001</t>
+  </si>
+  <si>
+    <t>AutoShipeer001@gmail.com</t>
+  </si>
+  <si>
+    <t>Registered successfully</t>
+  </si>
+  <si>
+    <t>autoshipeer001@gmail.com</t>
+  </si>
+  <si>
+    <t>User_TC004</t>
+  </si>
+  <si>
+    <t>Password reset successfully</t>
+  </si>
+  <si>
+    <t>Password2</t>
   </si>
 </sst>
 </file>
@@ -394,6 +429,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -429,16 +563,86 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Login successful</t>
   </si>
   <si>
-    <t>tchangepond899536@gmail.com</t>
-  </si>
-  <si>
     <t>Full Name</t>
   </si>
   <si>
@@ -79,13 +76,16 @@
   </si>
   <si>
     <t>Password2</t>
+  </si>
+  <si>
+    <t>changepondtest10@yahoo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,14 +127,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,8 +479,8 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -480,10 +491,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -494,35 +505,38 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -530,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -563,16 +577,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -604,16 +618,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -627,13 +641,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -642,7 +656,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>changepondtest10@yahoo.com</t>
+  </si>
+  <si>
+    <t>Loads_TC003</t>
+  </si>
+  <si>
+    <t>Loads_TC004</t>
   </si>
 </sst>
 </file>
@@ -440,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,12 +537,42 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -91,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,14 +103,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,17 +125,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,11 +435,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -485,7 +472,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
@@ -520,18 +507,18 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -539,9 +526,9 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
@@ -551,28 +538,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetPassword" sheetId="3" r:id="rId2"/>
-    <sheet name="Register" sheetId="2" r:id="rId3"/>
+    <sheet name="Shipper Admin" sheetId="4" r:id="rId2"/>
+    <sheet name="ResetPassword" sheetId="3" r:id="rId3"/>
+    <sheet name="Register" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -85,13 +86,19 @@
   </si>
   <si>
     <t>Loads_TC004</t>
+  </si>
+  <si>
+    <t>karthikeyan.s@changepond.com</t>
+  </si>
+  <si>
+    <t>Loads_TC005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +110,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,14 +140,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,7 +455,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -545,6 +565,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -598,7 +692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Loads_TC005</t>
+  </si>
+  <si>
+    <t>Loads_TC006</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +561,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -566,10 +583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,10 +646,25 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Shipper Admin" sheetId="4" r:id="rId2"/>
-    <sheet name="ResetPassword" sheetId="3" r:id="rId3"/>
-    <sheet name="Register" sheetId="2" r:id="rId4"/>
+    <sheet name="MultiLogin" sheetId="5" r:id="rId2"/>
+    <sheet name="MultiLogin2" sheetId="6" r:id="rId3"/>
+    <sheet name="Shipper Admin" sheetId="4" r:id="rId4"/>
+    <sheet name="ResetPassword" sheetId="3" r:id="rId5"/>
+    <sheet name="Register" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="35">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -95,6 +97,33 @@
   </si>
   <si>
     <t>Loads_TC006</t>
+  </si>
+  <si>
+    <t>Loads_TC007</t>
+  </si>
+  <si>
+    <t>changepondtest16@yahoo.com</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>Global Admin</t>
+  </si>
+  <si>
+    <t>Shipper Admin</t>
+  </si>
+  <si>
+    <t>Shipper User</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>karthirko29@gmail.com</t>
+  </si>
+  <si>
+    <t>User_TC009</t>
   </si>
 </sst>
 </file>
@@ -134,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,15 +171,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -456,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,18 +627,189 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -724,7 +947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -203,6 +203,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -510,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -668,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +695,7 @@
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -705,7 +706,7 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -716,7 +717,7 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -724,6 +725,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -733,7 +739,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +764,7 @@
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -769,7 +775,7 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -780,7 +786,7 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -791,7 +797,7 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -799,8 +805,14 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -13,13 +13,14 @@
     <sheet name="Shipper Admin" sheetId="4" r:id="rId4"/>
     <sheet name="ResetPassword" sheetId="3" r:id="rId5"/>
     <sheet name="Register" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -124,6 +125,9 @@
   </si>
   <si>
     <t>User_TC009</t>
+  </si>
+  <si>
+    <t>Loads_TC008</t>
   </si>
 </sst>
 </file>
@@ -265,7 +269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,7 +304,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,21 +660,36 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,43 +711,19 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
+      <c r="A2" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -736,10 +731,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+      <selection activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,35 +779,23 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1028,4 +1011,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="37">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Loads_TC008</t>
+  </si>
+  <si>
+    <t>Loads_TC009</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,22 +677,37 @@
         <v>8</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1"/>
     <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,19 +729,31 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>32</v>
+      <c r="A2" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -734,7 +764,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="B2:C2"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Loads_TC009</t>
+  </si>
+  <si>
+    <t>EditShippers_TC002</t>
+  </si>
+  <si>
+    <t>Carrier_TC001</t>
   </si>
 </sst>
 </file>
@@ -516,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,9 +691,37 @@
         <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -704,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,31 +763,19 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
+      <c r="A2" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -764,7 +786,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1070,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,19 +763,43 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -786,7 +810,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -278,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +313,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,11 +763,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
+      <c r="A2" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
@@ -775,23 +775,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -799,7 +788,6 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -278,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +313,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,10 +784,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -798,7 +810,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -741,7 +741,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,11 +763,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>30</v>
+      <c r="A2" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -810,7 +810,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,22 +784,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -810,7 +798,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,10 +843,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -866,9 +854,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
@@ -1091,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -1110,9 +1098,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -137,6 +137,30 @@
   </si>
   <si>
     <t>Carrier_TC001</t>
+  </si>
+  <si>
+    <t>Chat_With_Carrier_TC001</t>
+  </si>
+  <si>
+    <t>Chat_With_Shipper_Admin_TC002</t>
+  </si>
+  <si>
+    <t>Chat_With_Shipper_User_TC003</t>
+  </si>
+  <si>
+    <t>changepondrogertest700@gmail.com</t>
+  </si>
+  <si>
+    <t>Password@700</t>
+  </si>
+  <si>
+    <t>aniket.rmcet@gmail.com</t>
+  </si>
+  <si>
+    <t>a.changepond@gmail.com</t>
+  </si>
+  <si>
+    <t>Group_Chat_TC004</t>
   </si>
 </sst>
 </file>
@@ -522,17 +546,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -645,7 +669,7 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
@@ -673,7 +697,7 @@
       <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -687,7 +711,7 @@
       <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -725,14 +749,65 @@
         <v>8</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
-    <hyperlink ref="B11" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -740,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,8 +861,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -798,7 +873,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,10 +1184,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="48">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Group_Chat_TC004</t>
+  </si>
+  <si>
+    <t>Field_Mapping_TC001</t>
   </si>
 </sst>
 </file>
@@ -302,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,7 +340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,9 +808,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="50">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Field_Mapping_TC001</t>
+  </si>
+  <si>
+    <t>User_TC007</t>
+  </si>
+  <si>
+    <t>User_TC008</t>
   </si>
 </sst>
 </file>
@@ -231,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -244,6 +250,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -254,9 +261,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -551,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -960,10 +964,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="B4:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,10 +1034,38 @@
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="61">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -170,6 +170,39 @@
   </si>
   <si>
     <t>User_TC008</t>
+  </si>
+  <si>
+    <t>CreateDeal_TC001</t>
+  </si>
+  <si>
+    <t>rogerdeals21+stan@gmail.com</t>
+  </si>
+  <si>
+    <t>arewethere?</t>
+  </si>
+  <si>
+    <t>CreateDeal_TC002</t>
+  </si>
+  <si>
+    <t>rogerdeals21+rick@gmail.com</t>
+  </si>
+  <si>
+    <t>CreateDeal_TC003</t>
+  </si>
+  <si>
+    <t>rogerdeals21+john@gmail.com</t>
+  </si>
+  <si>
+    <t>ShareDeal_TC001</t>
+  </si>
+  <si>
+    <t>ShareDeal_TC001(2)</t>
+  </si>
+  <si>
+    <t>ShareDeal_TC002</t>
+  </si>
+  <si>
+    <t>ShareDeal_TC002(2)</t>
   </si>
 </sst>
 </file>
@@ -237,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -251,6 +284,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -261,6 +297,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -309,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,7 +383,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,6 +862,104 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -966,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="67">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -203,6 +203,24 @@
   </si>
   <si>
     <t>ShareDeal_TC002(2)</t>
+  </si>
+  <si>
+    <t>DuplicateDeal_TC001</t>
+  </si>
+  <si>
+    <t>DuplicateDeal_TC001(2)</t>
+  </si>
+  <si>
+    <t>DuplicateDeal_TC002</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC001</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC002</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC003</t>
   </si>
 </sst>
 </file>
@@ -592,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,6 +978,90 @@
         <v>52</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="76">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -221,6 +221,33 @@
   </si>
   <si>
     <t>WithDrawDeal_TC003</t>
+  </si>
+  <si>
+    <t>EditDeal_TC001</t>
+  </si>
+  <si>
+    <t>EditDeal_TC002</t>
+  </si>
+  <si>
+    <t>EditDeal_TC003</t>
+  </si>
+  <si>
+    <t>ReshareDeal_TC001</t>
+  </si>
+  <si>
+    <t>ReshareDeal_TC002</t>
+  </si>
+  <si>
+    <t>ReshareDeal_TC003</t>
+  </si>
+  <si>
+    <t>DiscardDeal_TC001</t>
+  </si>
+  <si>
+    <t>DiscardDeal_TC002</t>
+  </si>
+  <si>
+    <t>DiscardDeal_TC003</t>
   </si>
 </sst>
 </file>
@@ -610,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,6 +1089,132 @@
         <v>52</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="86">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -248,6 +248,36 @@
   </si>
   <si>
     <t>DiscardDeal_TC003</t>
+  </si>
+  <si>
+    <t>EditDeal_TC004</t>
+  </si>
+  <si>
+    <t>EditDeal_TC005</t>
+  </si>
+  <si>
+    <t>EditDeal_TC006</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC001</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC001(2)</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC002</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC002(2)</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC003</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC003(2)</t>
+  </si>
+  <si>
+    <t>CounterDeal_TC001</t>
   </si>
 </sst>
 </file>
@@ -637,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,6 +1245,146 @@
         <v>52</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="93">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -278,6 +278,27 @@
   </si>
   <si>
     <t>CounterDeal_TC001</t>
+  </si>
+  <si>
+    <t>Deals_Chat_ShipperUser_TC001</t>
+  </si>
+  <si>
+    <t>Deals_Chat_ShipperUser_TC001(2)</t>
+  </si>
+  <si>
+    <t>Deals_Chat_ShipperAdmin_TC002</t>
+  </si>
+  <si>
+    <t>Deals_Chat_ShipperAdmin_TC002(2)</t>
+  </si>
+  <si>
+    <t>Deals_Chat_CarrierUser_TC003</t>
+  </si>
+  <si>
+    <t>Deals_Chat_CarrierUser_TC003(2)</t>
+  </si>
+  <si>
+    <t>rogerdeals21+nick@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -667,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,6 +1406,90 @@
         <v>52</v>
       </c>
       <c r="D50" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="102">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -299,6 +299,33 @@
   </si>
   <si>
     <t>rogerdeals21+nick@gmail.com</t>
+  </si>
+  <si>
+    <t>CounterDeal_TC002</t>
+  </si>
+  <si>
+    <t>CounterDeal_TC003</t>
+  </si>
+  <si>
+    <t>AcceptDeal_TC001</t>
+  </si>
+  <si>
+    <t>AcceptDeal_TC001(2)</t>
+  </si>
+  <si>
+    <t>AcceptDeal_TC002(2)</t>
+  </si>
+  <si>
+    <t>AcceptDeal_TC002</t>
+  </si>
+  <si>
+    <t>DateFilter_TC001</t>
+  </si>
+  <si>
+    <t>DateFilter_TC002</t>
+  </si>
+  <si>
+    <t>DateFilter_TC003</t>
   </si>
 </sst>
 </file>
@@ -688,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,12 +1424,12 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" t="s">
         <v>52</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -1411,10 +1438,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" t="s">
-        <v>51</v>
+        <v>87</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
@@ -1424,13 +1451,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>87</v>
+      <c r="A52" t="s">
+        <v>88</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -1439,10 +1466,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>52</v>
@@ -1453,7 +1480,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>56</v>
@@ -1467,10 +1494,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>52</v>
@@ -1480,8 +1507,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>91</v>
+      <c r="A56" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>51</v>
@@ -1490,6 +1517,132 @@
         <v>52</v>
       </c>
       <c r="D56" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="118">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -326,6 +326,54 @@
   </si>
   <si>
     <t>DateFilter_TC003</t>
+  </si>
+  <si>
+    <t>ChatConnection_TC001</t>
+  </si>
+  <si>
+    <t>ChatConnection_TC001(2)</t>
+  </si>
+  <si>
+    <t>ChatConnection_TC002</t>
+  </si>
+  <si>
+    <t>ChatConnection_TC002(2)</t>
+  </si>
+  <si>
+    <t>rogerdeals21+matt@gmail.com</t>
+  </si>
+  <si>
+    <t>rogerdeals21+zeb@gmail.com</t>
+  </si>
+  <si>
+    <t>LocFilter_TC001</t>
+  </si>
+  <si>
+    <t>LocFilter_TC002</t>
+  </si>
+  <si>
+    <t>LocFilter_TC003</t>
+  </si>
+  <si>
+    <t>ExportDeal_TC001</t>
+  </si>
+  <si>
+    <t>ExportDeal_TC002</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC001</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC002</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC003</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC004</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC004(2)</t>
   </si>
 </sst>
 </file>
@@ -715,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:A55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,6 +1691,202 @@
         <v>52</v>
       </c>
       <c r="D65" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -8,19 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="MultiLogin" sheetId="5" r:id="rId2"/>
-    <sheet name="MultiLogin2" sheetId="6" r:id="rId3"/>
-    <sheet name="Shipper Admin" sheetId="4" r:id="rId4"/>
-    <sheet name="ResetPassword" sheetId="3" r:id="rId5"/>
-    <sheet name="Register" sheetId="2" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="MultiLogin2" sheetId="6" r:id="rId2"/>
+    <sheet name="MultiLogin" sheetId="5" r:id="rId3"/>
+    <sheet name="MultiLogin3" sheetId="8" r:id="rId4"/>
+    <sheet name="Shipper Admin" sheetId="4" r:id="rId5"/>
+    <sheet name="ResetPassword" sheetId="3" r:id="rId6"/>
+    <sheet name="Register" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="138">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -374,6 +375,66 @@
   </si>
   <si>
     <t>NegotiateDeal_TC004(2)</t>
+  </si>
+  <si>
+    <t>User_TC010</t>
+  </si>
+  <si>
+    <t>User_TC011</t>
+  </si>
+  <si>
+    <t>Invite_Chat_to_Carrier_TC001</t>
+  </si>
+  <si>
+    <t>Send_Chat_to_Carrier_TC002</t>
+  </si>
+  <si>
+    <t>ReSend_Chat_to_Carrier_TC003</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_Carrier_TC004</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_Carrier_TC005</t>
+  </si>
+  <si>
+    <t>Leave_Chat_With_Carrrier_TC006</t>
+  </si>
+  <si>
+    <t>Invite_Chat_to_ShipperAdmin_TC001</t>
+  </si>
+  <si>
+    <t>Send_Chat_to_ShipperAdmin_TC002</t>
+  </si>
+  <si>
+    <t>ReSend_Chat_to_ShipperAdmin_TC003</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_ShipperAdmin_TC004</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_ShipperAdmin_TC005</t>
+  </si>
+  <si>
+    <t>Leave_Chat_With_ShipperAdmin_TC006</t>
+  </si>
+  <si>
+    <t>Invite_Chat_to_ShipperUser_TC001</t>
+  </si>
+  <si>
+    <t>Send_Chat_to_ShipperUser_TC002</t>
+  </si>
+  <si>
+    <t>ReSend_Chat_to_ShipperUser_TC003</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_Shipperuser_TC004</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_Shipperuser_TC005</t>
+  </si>
+  <si>
+    <t>Leave_Chat_With_ShipperUser_TC006</t>
   </si>
 </sst>
 </file>
@@ -441,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -456,6 +517,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,19 +827,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:D79"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="54" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -910,42 +974,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
@@ -954,12 +1018,12 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
@@ -968,10 +1032,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -982,13 +1046,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -996,10 +1060,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1010,7 +1074,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -1024,52 +1088,52 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>52</v>
@@ -1080,10 +1144,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>52</v>
@@ -1094,7 +1158,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>56</v>
@@ -1108,10 +1172,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>52</v>
@@ -1122,7 +1186,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>56</v>
@@ -1136,10 +1200,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>52</v>
@@ -1150,7 +1214,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>56</v>
@@ -1164,7 +1228,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>51</v>
@@ -1178,10 +1242,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>52</v>
@@ -1192,7 +1256,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>51</v>
@@ -1206,10 +1270,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>52</v>
@@ -1220,7 +1284,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>51</v>
@@ -1234,10 +1298,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>52</v>
@@ -1248,10 +1312,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>52</v>
@@ -1262,10 +1326,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>52</v>
@@ -1276,7 +1340,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>56</v>
@@ -1290,10 +1354,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>52</v>
@@ -1304,10 +1368,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>52</v>
@@ -1318,7 +1382,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>54</v>
@@ -1332,10 +1396,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>52</v>
@@ -1346,10 +1410,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>52</v>
@@ -1360,10 +1424,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>52</v>
@@ -1374,10 +1438,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>52</v>
@@ -1388,7 +1452,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>54</v>
@@ -1402,7 +1466,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>56</v>
@@ -1416,10 +1480,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>52</v>
@@ -1430,7 +1494,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>56</v>
@@ -1444,10 +1508,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>52</v>
@@ -1458,10 +1522,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>52</v>
@@ -1472,12 +1536,12 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -1486,40 +1550,40 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>89</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" t="s">
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -1528,10 +1592,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>52</v>
@@ -1542,38 +1606,38 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B57" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>52</v>
@@ -1584,10 +1648,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>52</v>
@@ -1598,10 +1662,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>52</v>
@@ -1612,7 +1676,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>56</v>
@@ -1626,7 +1690,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>51</v>
@@ -1640,7 +1704,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>56</v>
@@ -1654,7 +1718,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>51</v>
@@ -1668,10 +1732,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>52</v>
@@ -1682,10 +1746,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>52</v>
@@ -1695,8 +1759,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>102</v>
+      <c r="A66" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>54</v>
@@ -1709,8 +1773,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>103</v>
+      <c r="A67" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>56</v>
@@ -1723,53 +1787,53 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B70" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="C70" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B71" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>52</v>
@@ -1780,10 +1844,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>52</v>
@@ -1794,10 +1858,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>52</v>
@@ -1808,10 +1872,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>52</v>
@@ -1822,7 +1886,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>51</v>
@@ -1836,7 +1900,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>54</v>
@@ -1850,10 +1914,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>52</v>
@@ -1864,10 +1928,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>52</v>
@@ -1878,7 +1942,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>56</v>
@@ -1890,85 +1954,305 @@
         <v>8</v>
       </c>
     </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2026,7 +2310,111 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" style="8" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.5703125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -2036,11 +2424,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2143,7 +2531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2151,11 +2539,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2197,7 +2585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2207,13 +2595,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2268,7 +2656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -8,20 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="MultiLogin2" sheetId="6" r:id="rId2"/>
-    <sheet name="MultiLogin" sheetId="5" r:id="rId3"/>
-    <sheet name="MultiLogin3" sheetId="8" r:id="rId4"/>
-    <sheet name="Shipper Admin" sheetId="4" r:id="rId5"/>
-    <sheet name="ResetPassword" sheetId="3" r:id="rId6"/>
-    <sheet name="Register" sheetId="2" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
+    <sheet name="MultiLogin2 (2)" sheetId="9" r:id="rId2"/>
+    <sheet name="MultiLogin2" sheetId="6" r:id="rId3"/>
+    <sheet name="MultiLogin" sheetId="5" r:id="rId4"/>
+    <sheet name="MultiLogin3" sheetId="8" r:id="rId5"/>
+    <sheet name="Shipper Admin" sheetId="4" r:id="rId6"/>
+    <sheet name="ResetPassword" sheetId="3" r:id="rId7"/>
+    <sheet name="Register" sheetId="2" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="146">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -435,6 +436,30 @@
   </si>
   <si>
     <t>Leave_Chat_With_ShipperUser_TC006</t>
+  </si>
+  <si>
+    <t>AddShippers_CarrierUser_TC008</t>
+  </si>
+  <si>
+    <t>EditShippers_CarrierUser_TC009</t>
+  </si>
+  <si>
+    <t>InActivateShippers_CarrierUser_TC010</t>
+  </si>
+  <si>
+    <t>ActivateShippers_CarrierUser_TC011</t>
+  </si>
+  <si>
+    <t>Verifty_CarrierRequest__004</t>
+  </si>
+  <si>
+    <t>CancelInvite_Carrier__005</t>
+  </si>
+  <si>
+    <t>ResendlInvite_Carrier__006</t>
+  </si>
+  <si>
+    <t>AcceptlInvite_Carrier__007</t>
   </si>
 </sst>
 </file>
@@ -502,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -522,6 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -827,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,6 +2260,118 @@
         <v>8</v>
       </c>
     </row>
+    <row r="100" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2245,14 +2383,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.42578125" style="8" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.5703125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2270,7 +2409,7 @@
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2301,16 +2440,85 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" style="8" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.5703125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2367,7 +2575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2414,7 +2622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -2531,7 +2739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2585,7 +2793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2656,7 +2864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="183">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -460,6 +460,117 @@
   </si>
   <si>
     <t>AcceptlInvite_Carrier__007</t>
+  </si>
+  <si>
+    <t>ShipperUser_CreateDeal_TC002</t>
+  </si>
+  <si>
+    <t>ShipperUser_ShareDeal_TC003</t>
+  </si>
+  <si>
+    <t>ShipperUser_ShareDeal_TC003(2)</t>
+  </si>
+  <si>
+    <t>ShipperUser_DuplicateDeal_TC004</t>
+  </si>
+  <si>
+    <t>ShipperUser_DuplicateDeal_TC004(2)</t>
+  </si>
+  <si>
+    <t>ShipperUser_ReShareDeal_TC004</t>
+  </si>
+  <si>
+    <t>ShipperUser_WithDrawDeal_TC005</t>
+  </si>
+  <si>
+    <t>ShipperUser_EditDeal_TC006</t>
+  </si>
+  <si>
+    <t>ShipperUser_EditDeal_TC007</t>
+  </si>
+  <si>
+    <t>ShipperUser_CounterDeal_TC008</t>
+  </si>
+  <si>
+    <t>ShipperUser_AcceptDeal_TC009(2)</t>
+  </si>
+  <si>
+    <t>ShipperUser_DateFilter_TC001</t>
+  </si>
+  <si>
+    <t>ShipperUser_NegotiateDeal_TC010</t>
+  </si>
+  <si>
+    <t>ShipperUser_NegotiateDeal_TC010(2)</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_CreateDeal_TC011</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_EditDeal_TC012</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_ShareAll_TC013</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_ShareAll_TC013(2)</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_EditDeal_TC014</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_WithdrawDeal_TC015</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_CounterDeal_TC016</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_CounterDeal_TC016(2)</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_AcceptDeal_TC017(2)</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_NegotiateDeal_TC018</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_NegotiateDeal_TC018(2)</t>
+  </si>
+  <si>
+    <t>Carrier_CreateDeal_TC019</t>
+  </si>
+  <si>
+    <t>Carrier_EditDeal_TC020</t>
+  </si>
+  <si>
+    <t>Carrier_ShareAll_TC021</t>
+  </si>
+  <si>
+    <t>Carrier_ShareAll_TC021(2)</t>
+  </si>
+  <si>
+    <t>Carrier_EditDeal_TC022</t>
+  </si>
+  <si>
+    <t>Carrier_WithdrawDeal_TC023</t>
+  </si>
+  <si>
+    <t>Carrier_CounterDeal_TC024</t>
+  </si>
+  <si>
+    <t>Carrier_CounterDeal_TC024(2)</t>
+  </si>
+  <si>
+    <t>Carrier_AcceptDeal_TC025</t>
+  </si>
+  <si>
+    <t>Carrier_AcceptDeal_TC025(2)</t>
+  </si>
+  <si>
+    <t>Carrier_NegotiateDeal_TC026</t>
+  </si>
+  <si>
+    <t>Carrier_NegotiateDeal_TC026(2)</t>
   </si>
 </sst>
 </file>
@@ -853,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,6 +2483,524 @@
         <v>8</v>
       </c>
     </row>
+    <row r="108" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2383,7 +3012,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,7 +3082,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,8 +3139,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="187">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -571,6 +571,18 @@
   </si>
   <si>
     <t>Carrier_NegotiateDeal_TC026(2)</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_ShipperContacts_TC001</t>
+  </si>
+  <si>
+    <t>Invalid_ShipperContacts_TC001</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_InactiveShipperContacts_TC002</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_activeShipperContacts_TC003</t>
   </si>
 </sst>
 </file>
@@ -964,15 +976,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="54" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2998,6 +3010,62 @@
         <v>52</v>
       </c>
       <c r="D144" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3012,7 +3080,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,7 +3150,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3119,7 +3187,7 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -3130,7 +3198,7 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="5" t="s">

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1047,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -979,7 +979,7 @@
   <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1047,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>

--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="193">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -583,6 +583,24 @@
   </si>
   <si>
     <t>GlobalAdmin_activeShipperContacts_TC003</t>
+  </si>
+  <si>
+    <t>Invalid_Login_TC001</t>
+  </si>
+  <si>
+    <t>Invalid_Login_TC001(2)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Invalid_Login_TC001(3)</t>
+  </si>
+  <si>
+    <t>Invalid_Login_TC001(4)</t>
+  </si>
+  <si>
+    <t>Login not successful</t>
   </si>
 </sst>
 </file>
@@ -650,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -671,6 +689,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -976,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,479 +2617,535 @@
       </c>
     </row>
     <row r="115" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D115" s="8" t="s">
+      <c r="C115" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C116" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D116" s="8" t="s">
+      <c r="C116" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D117" s="8" t="s">
+      <c r="C117" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D117" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D118" s="8" t="s">
+      <c r="B118" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D119" s="8" t="s">
+      <c r="B119" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D120" s="8" t="s">
+      <c r="C120" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D121" s="8" t="s">
+      <c r="B121" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C122" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D122" s="8" t="s">
+      <c r="C122" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D123" s="8" t="s">
+      <c r="C123" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D123" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C124" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D124" s="8" t="s">
+      <c r="C124" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D125" s="8" t="s">
+      <c r="B125" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D125" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C126" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D126" s="8" t="s">
+      <c r="C126" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C127" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D127" s="8" t="s">
+      <c r="C127" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D128" s="8" t="s">
+      <c r="C128" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D128" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D129" s="8" t="s">
+      <c r="B129" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D129" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D130" s="8" t="s">
+      <c r="B130" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D130" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D131" s="8" t="s">
+      <c r="C131" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D131" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D132" s="8" t="s">
+      <c r="B132" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D133" s="8" t="s">
+      <c r="B133" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D133" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D134" s="8" t="s">
+      <c r="B134" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D134" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B135" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D135" s="8" t="s">
+      <c r="B135" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D135" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D136" s="8" t="s">
+      <c r="C136" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D136" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D137" s="8" t="s">
+      <c r="B137" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D137" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D138" s="8" t="s">
+      <c r="B138" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D139" s="8" t="s">
+      <c r="B139" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D139" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C140" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D140" s="8" t="s">
+      <c r="C140" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D140" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D141" s="8" t="s">
+      <c r="B141" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C142" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D142" s="8" t="s">
+      <c r="C142" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D142" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C143" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D143" s="8" t="s">
+      <c r="C143" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D143" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D144" s="8" t="s">
+      <c r="B144" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D144" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D145" s="8" t="s">
+      <c r="C145" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C146" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D146" s="8" t="s">
+      <c r="C146" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D147" s="8" t="s">
+      <c r="C147" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>8</v>
+      <c r="C148" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3150,7 +3229,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,8 +3355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,11 +3379,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>27</v>
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
